--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahafonova\Anaconda3\envs\ReDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahafonova\PycharmProjects\ReDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1957BE-4D13-406A-A5CE-11114225347F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C82D0D-AF6D-4C0E-8822-BC05F12881DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30795" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Produktnummer</t>
   </si>
@@ -54,37 +54,19 @@
     <t>Mengeneinheit</t>
   </si>
   <si>
-    <t>Valid From Quantity</t>
-  </si>
-  <si>
     <t>Preis</t>
   </si>
   <si>
     <t>Preiseinheit</t>
   </si>
   <si>
-    <t>Waehrung</t>
-  </si>
-  <si>
-    <t>Preis gueltig von</t>
-  </si>
-  <si>
-    <t>Preis gueltig bis</t>
-  </si>
-  <si>
     <t>Klassifikation</t>
-  </si>
-  <si>
-    <t>Klassifikationsgruppe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,12 +141,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,38 +462,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="38.21875" customWidth="1"/>
-    <col min="3" max="3" width="20" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -532,28 +503,13 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
